--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +528,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18522718993076</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H2">
-        <v>1.18522718993076</v>
+        <v>4.152437</v>
       </c>
       <c r="I2">
-        <v>0.08914080736474672</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J2">
-        <v>0.08914080736474672</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>10.6393093937211</v>
+        <v>0.3341516666666666</v>
       </c>
       <c r="N2">
-        <v>10.6393093937211</v>
+        <v>1.002455</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.02354483703663662</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03467746452042096</v>
       </c>
       <c r="Q2">
-        <v>12.609998775524</v>
+        <v>0.4625145814261111</v>
       </c>
       <c r="R2">
-        <v>12.609998775524</v>
+        <v>4.162631232834999</v>
       </c>
       <c r="S2">
-        <v>0.08914080736474672</v>
+        <v>0.002388899625652508</v>
       </c>
       <c r="T2">
-        <v>0.08914080736474672</v>
+        <v>0.004626186685803654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.36933920805411</v>
+        <v>1.384145666666667</v>
       </c>
       <c r="H3">
-        <v>2.36933920805411</v>
+        <v>4.152437</v>
       </c>
       <c r="I3">
-        <v>0.1781977427797884</v>
+        <v>0.1014617184198512</v>
       </c>
       <c r="J3">
-        <v>0.1781977427797884</v>
+        <v>0.1334061399754118</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>10.6393093937211</v>
+        <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>10.6393093937211</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01082049501783563</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01593671391696275</v>
       </c>
       <c r="Q3">
-        <v>25.2081328931618</v>
+        <v>0.2125577134473333</v>
       </c>
       <c r="R3">
-        <v>25.2081328931618</v>
+        <v>1.913019421026</v>
       </c>
       <c r="S3">
-        <v>0.1781977427797884</v>
+        <v>0.001097866018663041</v>
       </c>
       <c r="T3">
-        <v>0.1781977427797884</v>
+        <v>0.002126055487554426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,613 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.384145666666667</v>
+      </c>
+      <c r="H4">
+        <v>4.152437</v>
+      </c>
+      <c r="I4">
+        <v>0.1014617184198512</v>
+      </c>
+      <c r="J4">
+        <v>0.1334061399754118</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.107897</v>
+      </c>
+      <c r="O4">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P4">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q4">
+        <v>0.04978172166544444</v>
+      </c>
+      <c r="R4">
+        <v>0.448035494989</v>
+      </c>
+      <c r="S4">
+        <v>0.0002571238638233424</v>
+      </c>
+      <c r="T4">
+        <v>0.0004979292485330084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>9.741557172907219</v>
-      </c>
-      <c r="H4">
-        <v>9.741557172907219</v>
-      </c>
-      <c r="I4">
-        <v>0.7326614498554649</v>
-      </c>
-      <c r="J4">
-        <v>0.7326614498554649</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>10.6393093937211</v>
-      </c>
-      <c r="N4">
-        <v>10.6393093937211</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>103.6434407391829</v>
-      </c>
-      <c r="R4">
-        <v>103.6434407391829</v>
-      </c>
-      <c r="S4">
-        <v>0.7326614498554649</v>
-      </c>
-      <c r="T4">
-        <v>0.7326614498554649</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.384145666666667</v>
+      </c>
+      <c r="H5">
+        <v>4.152437</v>
+      </c>
+      <c r="I5">
+        <v>0.1014617184198512</v>
+      </c>
+      <c r="J5">
+        <v>0.1334061399754118</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.6684585</v>
+      </c>
+      <c r="N5">
+        <v>27.336917</v>
+      </c>
+      <c r="O5">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P5">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q5">
+        <v>18.91913760278817</v>
+      </c>
+      <c r="R5">
+        <v>113.514825616729</v>
+      </c>
+      <c r="S5">
+        <v>0.09771782891171228</v>
+      </c>
+      <c r="T5">
+        <v>0.1261559685535207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.458038666666667</v>
+      </c>
+      <c r="H6">
+        <v>7.374116000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1801810554109116</v>
+      </c>
+      <c r="J6">
+        <v>0.2369096391566985</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3341516666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.002455</v>
+      </c>
+      <c r="O6">
+        <v>0.02354483703663662</v>
+      </c>
+      <c r="P6">
+        <v>0.03467746452042096</v>
+      </c>
+      <c r="Q6">
+        <v>0.8213577171977777</v>
+      </c>
+      <c r="R6">
+        <v>7.39221945478</v>
+      </c>
+      <c r="S6">
+        <v>0.004242333586739106</v>
+      </c>
+      <c r="T6">
+        <v>0.008215425606402146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.458038666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.374116000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1801810554109116</v>
+      </c>
+      <c r="J7">
+        <v>0.2369096391566985</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.153566</v>
+      </c>
+      <c r="N7">
+        <v>0.460698</v>
+      </c>
+      <c r="O7">
+        <v>0.01082049501783563</v>
+      </c>
+      <c r="P7">
+        <v>0.01593671391696275</v>
+      </c>
+      <c r="Q7">
+        <v>0.3774711658853334</v>
+      </c>
+      <c r="R7">
+        <v>3.397240492968</v>
+      </c>
+      <c r="S7">
+        <v>0.001949648212382135</v>
+      </c>
+      <c r="T7">
+        <v>0.003775561143411182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.458038666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.374116000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1801810554109116</v>
+      </c>
+      <c r="J8">
+        <v>0.2369096391566985</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.107897</v>
+      </c>
+      <c r="O8">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P8">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q8">
+        <v>0.08840499933911113</v>
+      </c>
+      <c r="R8">
+        <v>0.7956449940520002</v>
+      </c>
+      <c r="S8">
+        <v>0.0004566140794433559</v>
+      </c>
+      <c r="T8">
+        <v>0.0008842489454927875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.458038666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.374116000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1801810554109116</v>
+      </c>
+      <c r="J9">
+        <v>0.2369096391566985</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.6684585</v>
+      </c>
+      <c r="N9">
+        <v>27.336917</v>
+      </c>
+      <c r="O9">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P9">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q9">
+        <v>33.59759950672867</v>
+      </c>
+      <c r="R9">
+        <v>201.585597040372</v>
+      </c>
+      <c r="S9">
+        <v>0.173532459532347</v>
+      </c>
+      <c r="T9">
+        <v>0.2240344034613924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H10">
+        <v>19.599728</v>
+      </c>
+      <c r="I10">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J10">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3341516666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.002455</v>
+      </c>
+      <c r="O10">
+        <v>0.02354483703663662</v>
+      </c>
+      <c r="P10">
+        <v>0.03467746452042096</v>
+      </c>
+      <c r="Q10">
+        <v>3.274640888706666</v>
+      </c>
+      <c r="R10">
+        <v>19.64784533224</v>
+      </c>
+      <c r="S10">
+        <v>0.01691360382424501</v>
+      </c>
+      <c r="T10">
+        <v>0.02183585222821516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H11">
+        <v>19.599728</v>
+      </c>
+      <c r="I11">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J11">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.153566</v>
+      </c>
+      <c r="N11">
+        <v>0.460698</v>
+      </c>
+      <c r="O11">
+        <v>0.01082049501783563</v>
+      </c>
+      <c r="P11">
+        <v>0.01593671391696275</v>
+      </c>
+      <c r="Q11">
+        <v>1.504925915024</v>
+      </c>
+      <c r="R11">
+        <v>9.029555490144</v>
+      </c>
+      <c r="S11">
+        <v>0.007772980786790457</v>
+      </c>
+      <c r="T11">
+        <v>0.01003509728599715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H12">
+        <v>19.599728</v>
+      </c>
+      <c r="I12">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J12">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03596566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.107897</v>
+      </c>
+      <c r="O12">
+        <v>0.002534195830976933</v>
+      </c>
+      <c r="P12">
+        <v>0.003732431270590561</v>
+      </c>
+      <c r="Q12">
+        <v>0.3524586420026666</v>
+      </c>
+      <c r="R12">
+        <v>2.114751852016</v>
+      </c>
+      <c r="S12">
+        <v>0.001820457887710235</v>
+      </c>
+      <c r="T12">
+        <v>0.002350253076564765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.799863999999999</v>
+      </c>
+      <c r="H13">
+        <v>19.599728</v>
+      </c>
+      <c r="I13">
+        <v>0.7183572261692373</v>
+      </c>
+      <c r="J13">
+        <v>0.6296842208678898</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.6684585</v>
+      </c>
+      <c r="N13">
+        <v>27.336917</v>
+      </c>
+      <c r="O13">
+        <v>0.9631004721145509</v>
+      </c>
+      <c r="P13">
+        <v>0.9456533902920258</v>
+      </c>
+      <c r="Q13">
+        <v>133.949034389644</v>
+      </c>
+      <c r="R13">
+        <v>535.796137558576</v>
+      </c>
+      <c r="S13">
+        <v>0.6918501836704916</v>
+      </c>
+      <c r="T13">
+        <v>0.5954630182771127</v>
       </c>
     </row>
   </sheetData>
